--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Top2000Opdracht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A794CBC-7E4A-4756-8401-14AE514BBD46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA3BA5-E789-4313-88DE-9DC3673A5E93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA616AC8-7CCA-4A1D-B375-F9AB7A9509DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FA616AC8-7CCA-4A1D-B375-F9AB7A9509DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Normaalvormen" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultaat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,72 +35,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>Artiesten</t>
-  </si>
-  <si>
-    <t>Albums</t>
-  </si>
-  <si>
-    <t>ArtiestID (PK)</t>
-  </si>
-  <si>
-    <t>AlbumID (PK)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
   <si>
     <t>Titel</t>
   </si>
   <si>
-    <t>Lengte</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>GenreID (PK)</t>
-  </si>
-  <si>
-    <t>Uitgebracht</t>
-  </si>
-  <si>
-    <t>ArtiestID [FK]</t>
-  </si>
-  <si>
-    <t>AlbumID [FK]</t>
-  </si>
-  <si>
-    <t>GenreID [FK]</t>
-  </si>
-  <si>
-    <t>Plaats in top2000</t>
-  </si>
-  <si>
-    <t>AlbumNaam</t>
-  </si>
-  <si>
-    <t>Voornaam</t>
-  </si>
-  <si>
-    <t>Tussenvoegsel</t>
-  </si>
-  <si>
-    <t>Achternaam</t>
-  </si>
-  <si>
-    <t>GenreNaam</t>
-  </si>
-  <si>
-    <t>Aantalnummers</t>
-  </si>
-  <si>
-    <t>Geboortedatum</t>
-  </si>
-  <si>
-    <t>Nummers</t>
-  </si>
-  <si>
-    <t>NummerID (PK)</t>
+    <t>Nulde normaalvorm</t>
+  </si>
+  <si>
+    <t>NummerID</t>
+  </si>
+  <si>
+    <t>Eerste normaalvorm</t>
+  </si>
+  <si>
+    <t>Artiest</t>
+  </si>
+  <si>
+    <t>ArtiestID</t>
+  </si>
+  <si>
+    <t>Jaren</t>
+  </si>
+  <si>
+    <t>Jaar</t>
+  </si>
+  <si>
+    <t>Tweede normaalvorm</t>
+  </si>
+  <si>
+    <t>Derde normaalvorm</t>
+  </si>
+  <si>
+    <t>Verloop</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Positie</t>
+  </si>
+  <si>
+    <t>Top2000Year</t>
+  </si>
+  <si>
+    <t>Top2000Jaar</t>
+  </si>
+  <si>
+    <t>Top2000Lijst</t>
+  </si>
+  <si>
+    <t>ArtiestNaam</t>
+  </si>
+  <si>
+    <t>SongID</t>
+  </si>
+  <si>
+    <t>Resultaat - NL</t>
+  </si>
+  <si>
+    <t>Resultaat - EN</t>
+  </si>
+  <si>
+    <t>ArtistID</t>
+  </si>
+  <si>
+    <t>ArtistName</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
@@ -139,12 +149,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,12 +175,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -479,115 +515,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ADF44F-C545-47DA-8A92-932DDAC2F877}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF115C1-BF92-489D-89C9-5C46969606D3}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\Top2000Opdracht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljhul\Dropbox\School\Semester 4\semester-4-LucasHuls\Sprint 15\Project Top2000\Top2000Opdracht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA3BA5-E789-4313-88DE-9DC3673A5E93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009802F2-5E82-4EF7-99CA-FECCB19B2BC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FA616AC8-7CCA-4A1D-B375-F9AB7A9509DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA616AC8-7CCA-4A1D-B375-F9AB7A9509DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Normaalvormen" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +162,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -171,36 +177,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -517,220 +626,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ADF44F-C545-47DA-8A92-932DDAC2F877}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E30" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -749,24 +858,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF115C1-BF92-489D-89C9-5C46969606D3}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -780,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -794,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
@@ -805,7 +914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -813,17 +922,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -851,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
@@ -862,7 +971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>24</v>
       </c>
@@ -870,7 +979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>23</v>
       </c>
